--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna4-Epha2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna4-Epha2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Efna4</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7471093333333334</v>
+        <v>1.180761</v>
       </c>
       <c r="H2">
-        <v>2.241328</v>
+        <v>3.542283</v>
       </c>
       <c r="I2">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="J2">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.64154566666667</v>
+        <v>24.27461233333333</v>
       </c>
       <c r="N2">
-        <v>37.924637</v>
+        <v>72.823837</v>
       </c>
       <c r="O2">
-        <v>0.5019409384896429</v>
+        <v>0.540681551915145</v>
       </c>
       <c r="P2">
-        <v>0.5019409384896429</v>
+        <v>0.540681551915145</v>
       </c>
       <c r="Q2">
-        <v>9.444616755326225</v>
+        <v>28.662515533319</v>
       </c>
       <c r="R2">
-        <v>85.00155079793602</v>
+        <v>257.962639799871</v>
       </c>
       <c r="S2">
-        <v>0.2333288216303887</v>
+        <v>0.3300069369645097</v>
       </c>
       <c r="T2">
-        <v>0.2333288216303887</v>
+        <v>0.3300069369645097</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7471093333333334</v>
+        <v>1.180761</v>
       </c>
       <c r="H3">
-        <v>2.241328</v>
+        <v>3.542283</v>
       </c>
       <c r="I3">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="J3">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.291159666666666</v>
+        <v>1.291159666666667</v>
       </c>
       <c r="N3">
         <v>3.873479</v>
       </c>
       <c r="O3">
-        <v>0.05126634921989954</v>
+        <v>0.0287586966480594</v>
       </c>
       <c r="P3">
-        <v>0.05126634921989955</v>
+        <v>0.0287586966480594</v>
       </c>
       <c r="Q3">
-        <v>0.9646374377902222</v>
+        <v>1.524550979173</v>
       </c>
       <c r="R3">
-        <v>8.681736940112</v>
+        <v>13.720958812557</v>
       </c>
       <c r="S3">
-        <v>0.02383132343969584</v>
+        <v>0.01755297431233062</v>
       </c>
       <c r="T3">
-        <v>0.02383132343969585</v>
+        <v>0.01755297431233062</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7471093333333334</v>
+        <v>1.180761</v>
       </c>
       <c r="H4">
-        <v>2.241328</v>
+        <v>3.542283</v>
       </c>
       <c r="I4">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="J4">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9795900000000001</v>
+        <v>1.899338333333333</v>
       </c>
       <c r="N4">
-        <v>2.93877</v>
+        <v>5.698015</v>
       </c>
       <c r="O4">
-        <v>0.03889526936817372</v>
+        <v>0.04230498858547889</v>
       </c>
       <c r="P4">
-        <v>0.03889526936817373</v>
+        <v>0.04230498858547889</v>
       </c>
       <c r="Q4">
-        <v>0.7318608318400002</v>
+        <v>2.242664629805</v>
       </c>
       <c r="R4">
-        <v>6.586747486560001</v>
+        <v>20.183981668245</v>
       </c>
       <c r="S4">
-        <v>0.01808058811855568</v>
+        <v>0.02582100249576016</v>
       </c>
       <c r="T4">
-        <v>0.01808058811855569</v>
+        <v>0.02582100249576016</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7471093333333334</v>
+        <v>1.180761</v>
       </c>
       <c r="H5">
-        <v>2.241328</v>
+        <v>3.542283</v>
       </c>
       <c r="I5">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="J5">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.927132333333335</v>
+        <v>16.14987566666667</v>
       </c>
       <c r="N5">
-        <v>26.781397</v>
+        <v>48.449627</v>
       </c>
       <c r="O5">
-        <v>0.3544576984149831</v>
+        <v>0.3597149037350217</v>
       </c>
       <c r="P5">
-        <v>0.3544576984149831</v>
+        <v>0.3597149037350217</v>
       </c>
       <c r="Q5">
-        <v>6.669543886135113</v>
+        <v>19.069143342049</v>
       </c>
       <c r="R5">
-        <v>60.02589497521601</v>
+        <v>171.622290078441</v>
       </c>
       <c r="S5">
-        <v>0.164770774302352</v>
+        <v>0.2195532899940854</v>
       </c>
       <c r="T5">
-        <v>0.164770774302352</v>
+        <v>0.2195532899940854</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7471093333333334</v>
+        <v>1.180761</v>
       </c>
       <c r="H6">
-        <v>2.241328</v>
+        <v>3.542283</v>
       </c>
       <c r="I6">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="J6">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.265959</v>
+        <v>0.3088903333333333</v>
       </c>
       <c r="N6">
-        <v>0.7978769999999999</v>
+        <v>0.926671</v>
       </c>
       <c r="O6">
-        <v>0.01056007814074267</v>
+        <v>0.006880081234867635</v>
       </c>
       <c r="P6">
-        <v>0.01056007814074267</v>
+        <v>0.006880081234867635</v>
       </c>
       <c r="Q6">
-        <v>0.198700451184</v>
+        <v>0.364725658877</v>
       </c>
       <c r="R6">
-        <v>1.788304060656</v>
+        <v>3.282530929893</v>
       </c>
       <c r="S6">
-        <v>0.004908885488237887</v>
+        <v>0.004199282417429326</v>
       </c>
       <c r="T6">
-        <v>0.004908885488237887</v>
+        <v>0.004199282417429326</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7471093333333334</v>
+        <v>1.180761</v>
       </c>
       <c r="H7">
-        <v>2.241328</v>
+        <v>3.542283</v>
       </c>
       <c r="I7">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="J7">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.079938333333333</v>
+        <v>0.9724443333333334</v>
       </c>
       <c r="N7">
-        <v>3.239815</v>
+        <v>2.917333</v>
       </c>
       <c r="O7">
-        <v>0.04287966636655803</v>
+        <v>0.02165977788142728</v>
       </c>
       <c r="P7">
-        <v>0.04287966636655803</v>
+        <v>0.02165977788142728</v>
       </c>
       <c r="Q7">
-        <v>0.8068320082577778</v>
+        <v>1.148224343471</v>
       </c>
       <c r="R7">
-        <v>7.26148807432</v>
+        <v>10.334019091239</v>
       </c>
       <c r="S7">
-        <v>0.01993274757647536</v>
+        <v>0.01322012361742878</v>
       </c>
       <c r="T7">
-        <v>0.01993274757647536</v>
+        <v>0.01322012361742878</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>1.439786</v>
       </c>
       <c r="I8">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="J8">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.64154566666667</v>
+        <v>24.27461233333333</v>
       </c>
       <c r="N8">
-        <v>37.924637</v>
+        <v>72.823837</v>
       </c>
       <c r="O8">
-        <v>0.5019409384896429</v>
+        <v>0.540681551915145</v>
       </c>
       <c r="P8">
-        <v>0.5019409384896429</v>
+        <v>0.540681551915145</v>
       </c>
       <c r="Q8">
-        <v>6.067040156409112</v>
+        <v>11.65008233098689</v>
       </c>
       <c r="R8">
-        <v>54.60336140768202</v>
+        <v>104.850740978882</v>
       </c>
       <c r="S8">
-        <v>0.1498859474293503</v>
+        <v>0.1341336555392055</v>
       </c>
       <c r="T8">
-        <v>0.1498859474293503</v>
+        <v>0.1341336555392055</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>1.439786</v>
       </c>
       <c r="I9">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="J9">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.291159666666666</v>
+        <v>1.291159666666667</v>
       </c>
       <c r="N9">
         <v>3.873479</v>
       </c>
       <c r="O9">
-        <v>0.05126634921989954</v>
+        <v>0.0287586966480594</v>
       </c>
       <c r="P9">
-        <v>0.05126634921989955</v>
+        <v>0.0287586966480594</v>
       </c>
       <c r="Q9">
         <v>0.6196645372771111</v>
@@ -1013,10 +1013,10 @@
         <v>5.576980835494</v>
       </c>
       <c r="S9">
-        <v>0.01530878383259653</v>
+        <v>0.007134530660947546</v>
       </c>
       <c r="T9">
-        <v>0.01530878383259653</v>
+        <v>0.007134530660947546</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>1.439786</v>
       </c>
       <c r="I10">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="J10">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9795900000000001</v>
+        <v>1.899338333333333</v>
       </c>
       <c r="N10">
-        <v>2.93877</v>
+        <v>5.698015</v>
       </c>
       <c r="O10">
-        <v>0.03889526936817372</v>
+        <v>0.04230498858547889</v>
       </c>
       <c r="P10">
-        <v>0.03889526936817373</v>
+        <v>0.04230498858547889</v>
       </c>
       <c r="Q10">
-        <v>0.4701333225800001</v>
+        <v>0.9115469138655555</v>
       </c>
       <c r="R10">
-        <v>4.231199903220001</v>
+        <v>8.20392222479</v>
       </c>
       <c r="S10">
-        <v>0.01161462206551777</v>
+        <v>0.01049512924273993</v>
       </c>
       <c r="T10">
-        <v>0.01161462206551778</v>
+        <v>0.01049512924273993</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>1.439786</v>
       </c>
       <c r="I11">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="J11">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.927132333333335</v>
+        <v>16.14987566666667</v>
       </c>
       <c r="N11">
-        <v>26.781397</v>
+        <v>48.449627</v>
       </c>
       <c r="O11">
-        <v>0.3544576984149831</v>
+        <v>0.3597149037350217</v>
       </c>
       <c r="P11">
-        <v>0.3544576984149831</v>
+        <v>0.3597149037350217</v>
       </c>
       <c r="Q11">
-        <v>4.284386717893557</v>
+        <v>7.750788295535778</v>
       </c>
       <c r="R11">
-        <v>38.55948046104201</v>
+        <v>69.757094659822</v>
       </c>
       <c r="S11">
-        <v>0.1058455763947473</v>
+        <v>0.08923898886323434</v>
       </c>
       <c r="T11">
-        <v>0.1058455763947473</v>
+        <v>0.08923898886323434</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>1.439786</v>
       </c>
       <c r="I12">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="J12">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.265959</v>
+        <v>0.3088903333333333</v>
       </c>
       <c r="N12">
-        <v>0.7978769999999999</v>
+        <v>0.926671</v>
       </c>
       <c r="O12">
-        <v>0.01056007814074267</v>
+        <v>0.006880081234867635</v>
       </c>
       <c r="P12">
-        <v>0.01056007814074267</v>
+        <v>0.006880081234867635</v>
       </c>
       <c r="Q12">
-        <v>0.127641348258</v>
+        <v>0.1482453258228889</v>
       </c>
       <c r="R12">
-        <v>1.148772134322</v>
+        <v>1.334207932406</v>
       </c>
       <c r="S12">
-        <v>0.003153373625621986</v>
+        <v>0.00170682806389577</v>
       </c>
       <c r="T12">
-        <v>0.003153373625621986</v>
+        <v>0.00170682806389577</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>1.439786</v>
       </c>
       <c r="I13">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="J13">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.079938333333333</v>
+        <v>0.9724443333333334</v>
       </c>
       <c r="N13">
-        <v>3.239815</v>
+        <v>2.917333</v>
       </c>
       <c r="O13">
-        <v>0.04287966636655803</v>
+        <v>0.02165977788142728</v>
       </c>
       <c r="P13">
-        <v>0.04287966636655803</v>
+        <v>0.02165977788142728</v>
       </c>
       <c r="Q13">
-        <v>0.5182933643988888</v>
+        <v>0.4667039123042223</v>
       </c>
       <c r="R13">
-        <v>4.66464027959</v>
+        <v>4.200335210738</v>
       </c>
       <c r="S13">
-        <v>0.01280441367891855</v>
+        <v>0.005373412825187406</v>
       </c>
       <c r="T13">
-        <v>0.01280441367891855</v>
+        <v>0.005373412825187406</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3801563333333333</v>
+        <v>0.2047916666666667</v>
       </c>
       <c r="H14">
-        <v>1.140469</v>
+        <v>0.614375</v>
       </c>
       <c r="I14">
-        <v>0.2365341424175421</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="J14">
-        <v>0.2365341424175421</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.64154566666667</v>
+        <v>24.27461233333333</v>
       </c>
       <c r="N14">
-        <v>37.924637</v>
+        <v>72.823837</v>
       </c>
       <c r="O14">
-        <v>0.5019409384896429</v>
+        <v>0.540681551915145</v>
       </c>
       <c r="P14">
-        <v>0.5019409384896429</v>
+        <v>0.540681551915145</v>
       </c>
       <c r="Q14">
-        <v>4.805763648305889</v>
+        <v>4.971238317430556</v>
       </c>
       <c r="R14">
-        <v>43.251872834753</v>
+        <v>44.741144856875</v>
       </c>
       <c r="S14">
-        <v>0.118726169429904</v>
+        <v>0.05723653697278581</v>
       </c>
       <c r="T14">
-        <v>0.1187261694299039</v>
+        <v>0.05723653697278581</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3801563333333333</v>
+        <v>0.2047916666666667</v>
       </c>
       <c r="H15">
-        <v>1.140469</v>
+        <v>0.614375</v>
       </c>
       <c r="I15">
-        <v>0.2365341424175421</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="J15">
-        <v>0.2365341424175421</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.291159666666666</v>
+        <v>1.291159666666667</v>
       </c>
       <c r="N15">
         <v>3.873479</v>
       </c>
       <c r="O15">
-        <v>0.05126634921989954</v>
+        <v>0.0287586966480594</v>
       </c>
       <c r="P15">
-        <v>0.05126634921989955</v>
+        <v>0.0287586966480594</v>
       </c>
       <c r="Q15">
-        <v>0.4908425246278888</v>
+        <v>0.2644187400694445</v>
       </c>
       <c r="R15">
-        <v>4.417582721651</v>
+        <v>2.379768660625</v>
       </c>
       <c r="S15">
-        <v>0.01212624194760717</v>
+        <v>0.003044394982879156</v>
       </c>
       <c r="T15">
-        <v>0.01212624194760717</v>
+        <v>0.003044394982879156</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3801563333333333</v>
+        <v>0.2047916666666667</v>
       </c>
       <c r="H16">
-        <v>1.140469</v>
+        <v>0.614375</v>
       </c>
       <c r="I16">
-        <v>0.2365341424175421</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="J16">
-        <v>0.2365341424175421</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.9795900000000001</v>
+        <v>1.899338333333333</v>
       </c>
       <c r="N16">
-        <v>2.93877</v>
+        <v>5.698015</v>
       </c>
       <c r="O16">
-        <v>0.03889526936817372</v>
+        <v>0.04230498858547889</v>
       </c>
       <c r="P16">
-        <v>0.03889526936817373</v>
+        <v>0.04230498858547889</v>
       </c>
       <c r="Q16">
-        <v>0.37239734257</v>
+        <v>0.3889686628472223</v>
       </c>
       <c r="R16">
-        <v>3.35157608313</v>
+        <v>3.500717965625</v>
       </c>
       <c r="S16">
-        <v>0.009200059184100266</v>
+        <v>0.004478405143895236</v>
       </c>
       <c r="T16">
-        <v>0.009200059184100268</v>
+        <v>0.004478405143895236</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3801563333333333</v>
+        <v>0.2047916666666667</v>
       </c>
       <c r="H17">
-        <v>1.140469</v>
+        <v>0.614375</v>
       </c>
       <c r="I17">
-        <v>0.2365341424175421</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="J17">
-        <v>0.2365341424175421</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.927132333333335</v>
+        <v>16.14987566666667</v>
       </c>
       <c r="N17">
-        <v>26.781397</v>
+        <v>48.449627</v>
       </c>
       <c r="O17">
-        <v>0.3544576984149831</v>
+        <v>0.3597149037350217</v>
       </c>
       <c r="P17">
-        <v>0.3544576984149831</v>
+        <v>0.3597149037350217</v>
       </c>
       <c r="Q17">
-        <v>3.393705895021445</v>
+        <v>3.307359954236111</v>
       </c>
       <c r="R17">
-        <v>30.543353055193</v>
+        <v>29.766239588125</v>
       </c>
       <c r="S17">
-        <v>0.0838413477178838</v>
+        <v>0.03807941165065475</v>
       </c>
       <c r="T17">
-        <v>0.08384134771788379</v>
+        <v>0.03807941165065475</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3801563333333333</v>
+        <v>0.2047916666666667</v>
       </c>
       <c r="H18">
-        <v>1.140469</v>
+        <v>0.614375</v>
       </c>
       <c r="I18">
-        <v>0.2365341424175421</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="J18">
-        <v>0.2365341424175421</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.265959</v>
+        <v>0.3088903333333333</v>
       </c>
       <c r="N18">
-        <v>0.7978769999999999</v>
+        <v>0.926671</v>
       </c>
       <c r="O18">
-        <v>0.01056007814074267</v>
+        <v>0.006880081234867635</v>
       </c>
       <c r="P18">
-        <v>0.01056007814074267</v>
+        <v>0.006880081234867635</v>
       </c>
       <c r="Q18">
-        <v>0.101105998257</v>
+        <v>0.06325816618055556</v>
       </c>
       <c r="R18">
-        <v>0.9099539843129999</v>
+        <v>0.5693234956250001</v>
       </c>
       <c r="S18">
-        <v>0.002497819026882801</v>
+        <v>0.000728325245387831</v>
       </c>
       <c r="T18">
-        <v>0.0024978190268828</v>
+        <v>0.000728325245387831</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.2047916666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.614375</v>
+      </c>
+      <c r="I19">
+        <v>0.1058599775968842</v>
+      </c>
+      <c r="J19">
+        <v>0.1058599775968842</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.9724443333333334</v>
+      </c>
+      <c r="N19">
+        <v>2.917333</v>
+      </c>
+      <c r="O19">
+        <v>0.02165977788142728</v>
+      </c>
+      <c r="P19">
+        <v>0.02165977788142728</v>
+      </c>
+      <c r="Q19">
+        <v>0.1991484957638889</v>
+      </c>
+      <c r="R19">
+        <v>1.792336461875</v>
+      </c>
+      <c r="S19">
+        <v>0.00229290360128138</v>
+      </c>
+      <c r="T19">
+        <v>0.00229290360128138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.06907100000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.207213</v>
+      </c>
+      <c r="I20">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="J20">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>24.27461233333333</v>
+      </c>
+      <c r="N20">
+        <v>72.823837</v>
+      </c>
+      <c r="O20">
+        <v>0.540681551915145</v>
+      </c>
+      <c r="P20">
+        <v>0.540681551915145</v>
+      </c>
+      <c r="Q20">
+        <v>1.676671748475667</v>
+      </c>
+      <c r="R20">
+        <v>15.090045736281</v>
+      </c>
+      <c r="S20">
+        <v>0.01930442243864394</v>
+      </c>
+      <c r="T20">
+        <v>0.01930442243864394</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06907100000000001</v>
+      </c>
+      <c r="H21">
+        <v>0.207213</v>
+      </c>
+      <c r="I21">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="J21">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.291159666666667</v>
+      </c>
+      <c r="N21">
+        <v>3.873479</v>
+      </c>
+      <c r="O21">
+        <v>0.0287586966480594</v>
+      </c>
+      <c r="P21">
+        <v>0.0287586966480594</v>
+      </c>
+      <c r="Q21">
+        <v>0.08918168933633334</v>
+      </c>
+      <c r="R21">
+        <v>0.8026352040270001</v>
+      </c>
+      <c r="S21">
+        <v>0.001026796691902077</v>
+      </c>
+      <c r="T21">
+        <v>0.001026796691902077</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.06907100000000001</v>
+      </c>
+      <c r="H22">
+        <v>0.207213</v>
+      </c>
+      <c r="I22">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="J22">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.899338333333333</v>
+      </c>
+      <c r="N22">
+        <v>5.698015</v>
+      </c>
+      <c r="O22">
+        <v>0.04230498858547889</v>
+      </c>
+      <c r="P22">
+        <v>0.04230498858547889</v>
+      </c>
+      <c r="Q22">
+        <v>0.1311891980216667</v>
+      </c>
+      <c r="R22">
+        <v>1.180702782195</v>
+      </c>
+      <c r="S22">
+        <v>0.001510451703083562</v>
+      </c>
+      <c r="T22">
+        <v>0.001510451703083562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.06907100000000001</v>
+      </c>
+      <c r="H23">
+        <v>0.207213</v>
+      </c>
+      <c r="I23">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="J23">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>16.14987566666667</v>
+      </c>
+      <c r="N23">
+        <v>48.449627</v>
+      </c>
+      <c r="O23">
+        <v>0.3597149037350217</v>
+      </c>
+      <c r="P23">
+        <v>0.3597149037350217</v>
+      </c>
+      <c r="Q23">
+        <v>1.115488062172334</v>
+      </c>
+      <c r="R23">
+        <v>10.039392559551</v>
+      </c>
+      <c r="S23">
+        <v>0.0128432132270472</v>
+      </c>
+      <c r="T23">
+        <v>0.0128432132270472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.3801563333333333</v>
-      </c>
-      <c r="H19">
-        <v>1.140469</v>
-      </c>
-      <c r="I19">
-        <v>0.2365341424175421</v>
-      </c>
-      <c r="J19">
-        <v>0.2365341424175421</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.079938333333333</v>
-      </c>
-      <c r="N19">
-        <v>3.239815</v>
-      </c>
-      <c r="O19">
-        <v>0.04287966636655803</v>
-      </c>
-      <c r="P19">
-        <v>0.04287966636655803</v>
-      </c>
-      <c r="Q19">
-        <v>0.410545397026111</v>
-      </c>
-      <c r="R19">
-        <v>3.694908573234999</v>
-      </c>
-      <c r="S19">
-        <v>0.01014250511116413</v>
-      </c>
-      <c r="T19">
-        <v>0.01014250511116413</v>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.06907100000000001</v>
+      </c>
+      <c r="H24">
+        <v>0.207213</v>
+      </c>
+      <c r="I24">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="J24">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.3088903333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.926671</v>
+      </c>
+      <c r="O24">
+        <v>0.006880081234867635</v>
+      </c>
+      <c r="P24">
+        <v>0.006880081234867635</v>
+      </c>
+      <c r="Q24">
+        <v>0.02133536421366667</v>
+      </c>
+      <c r="R24">
+        <v>0.192018277923</v>
+      </c>
+      <c r="S24">
+        <v>0.0002456455081547078</v>
+      </c>
+      <c r="T24">
+        <v>0.0002456455081547078</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.06907100000000001</v>
+      </c>
+      <c r="H25">
+        <v>0.207213</v>
+      </c>
+      <c r="I25">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="J25">
+        <v>0.03570386740636119</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.9724443333333334</v>
+      </c>
+      <c r="N25">
+        <v>2.917333</v>
+      </c>
+      <c r="O25">
+        <v>0.02165977788142728</v>
+      </c>
+      <c r="P25">
+        <v>0.02165977788142728</v>
+      </c>
+      <c r="Q25">
+        <v>0.06716770254766667</v>
+      </c>
+      <c r="R25">
+        <v>0.6045093229290001</v>
+      </c>
+      <c r="S25">
+        <v>0.0007733378375297148</v>
+      </c>
+      <c r="T25">
+        <v>0.0007733378375297148</v>
       </c>
     </row>
   </sheetData>
